--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8137380443288</v>
+        <v>21.66138833333333</v>
       </c>
       <c r="H2">
-        <v>11.8137380443288</v>
+        <v>64.98416499999999</v>
       </c>
       <c r="I2">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="J2">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>149.2546754374126</v>
+        <v>358.1841395702199</v>
       </c>
       <c r="R2">
-        <v>149.2546754374126</v>
+        <v>3223.657256131979</v>
       </c>
       <c r="S2">
-        <v>0.02564973062274116</v>
+        <v>0.04776883806325753</v>
       </c>
       <c r="T2">
-        <v>0.02564973062274116</v>
+        <v>0.04776883806325755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8137380443288</v>
+        <v>21.66138833333333</v>
       </c>
       <c r="H3">
-        <v>11.8137380443288</v>
+        <v>64.98416499999999</v>
       </c>
       <c r="I3">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="J3">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>479.4005994140244</v>
+        <v>879.8992552155755</v>
       </c>
       <c r="R3">
-        <v>479.4005994140244</v>
+        <v>7919.093296940179</v>
       </c>
       <c r="S3">
-        <v>0.08238600364989368</v>
+        <v>0.1173468068262516</v>
       </c>
       <c r="T3">
-        <v>0.08238600364989368</v>
+        <v>0.1173468068262516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8137380443288</v>
+        <v>21.66138833333333</v>
       </c>
       <c r="H4">
-        <v>11.8137380443288</v>
+        <v>64.98416499999999</v>
       </c>
       <c r="I4">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="J4">
-        <v>0.1475728297428304</v>
+        <v>0.2252765553546639</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>230.064652098533</v>
+        <v>451.103372499595</v>
       </c>
       <c r="R4">
-        <v>230.064652098533</v>
+        <v>4059.930352496354</v>
       </c>
       <c r="S4">
-        <v>0.03953709547019556</v>
+        <v>0.06016091046515475</v>
       </c>
       <c r="T4">
-        <v>0.03953709547019556</v>
+        <v>0.06016091046515475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.5784834568441</v>
+        <v>24.68088566666666</v>
       </c>
       <c r="H5">
-        <v>24.5784834568441</v>
+        <v>74.04265699999999</v>
       </c>
       <c r="I5">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="J5">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>310.5243706378039</v>
+        <v>408.1133517532759</v>
       </c>
       <c r="R5">
-        <v>310.5243706378039</v>
+        <v>3673.020165779483</v>
       </c>
       <c r="S5">
-        <v>0.05336426772101913</v>
+        <v>0.05442759312220633</v>
       </c>
       <c r="T5">
-        <v>0.05336426772101913</v>
+        <v>0.05442759312220635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.5784834568441</v>
+        <v>24.68088566666666</v>
       </c>
       <c r="H6">
-        <v>24.5784834568441</v>
+        <v>74.04265699999999</v>
       </c>
       <c r="I6">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="J6">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>997.393006149748</v>
+        <v>1002.553141191894</v>
       </c>
       <c r="R6">
-        <v>997.393006149748</v>
+        <v>9022.978270727044</v>
       </c>
       <c r="S6">
-        <v>0.1714040907447137</v>
+        <v>0.1337044088799388</v>
       </c>
       <c r="T6">
-        <v>0.1714040907447137</v>
+        <v>0.1337044088799388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.5784834568441</v>
+        <v>24.68088566666666</v>
       </c>
       <c r="H7">
-        <v>24.5784834568441</v>
+        <v>74.04265699999999</v>
       </c>
       <c r="I7">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="J7">
-        <v>0.3070252904629987</v>
+        <v>0.2566790650963491</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N7">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q7">
-        <v>478.6495370381863</v>
+        <v>513.985095931151</v>
       </c>
       <c r="R7">
-        <v>478.6495370381863</v>
+        <v>4625.865863380359</v>
       </c>
       <c r="S7">
-        <v>0.08225693199726593</v>
+        <v>0.068547063094204</v>
       </c>
       <c r="T7">
-        <v>0.08225693199726593</v>
+        <v>0.06854706309420401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.6613904334641</v>
+        <v>49.812376</v>
       </c>
       <c r="H8">
-        <v>43.6613904334641</v>
+        <v>149.437128</v>
       </c>
       <c r="I8">
-        <v>0.545401879794171</v>
+        <v>0.518044379548987</v>
       </c>
       <c r="J8">
-        <v>0.545401879794171</v>
+        <v>0.5180443795489871</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N8">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q8">
-        <v>551.6176703631218</v>
+        <v>823.677723835104</v>
       </c>
       <c r="R8">
-        <v>551.6176703631218</v>
+        <v>7413.099514515936</v>
       </c>
       <c r="S8">
-        <v>0.09479665953574218</v>
+        <v>0.1098488834636913</v>
       </c>
       <c r="T8">
-        <v>0.09479665953574218</v>
+        <v>0.1098488834636914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.6613904334641</v>
+        <v>49.812376</v>
       </c>
       <c r="H9">
-        <v>43.6613904334641</v>
+        <v>149.437128</v>
       </c>
       <c r="I9">
-        <v>0.545401879794171</v>
+        <v>0.518044379548987</v>
       </c>
       <c r="J9">
-        <v>0.545401879794171</v>
+        <v>0.5180443795489871</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N9">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q9">
-        <v>1771.775932944487</v>
+        <v>2023.410128125131</v>
       </c>
       <c r="R9">
-        <v>1771.775932944487</v>
+        <v>18210.69115312618</v>
       </c>
       <c r="S9">
-        <v>0.3044834292171894</v>
+        <v>0.2698498902322717</v>
       </c>
       <c r="T9">
-        <v>0.3044834292171894</v>
+        <v>0.2698498902322718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.6613904334641</v>
+        <v>49.812376</v>
       </c>
       <c r="H10">
-        <v>43.6613904334641</v>
+        <v>149.437128</v>
       </c>
       <c r="I10">
-        <v>0.545401879794171</v>
+        <v>0.518044379548987</v>
       </c>
       <c r="J10">
-        <v>0.545401879794171</v>
+        <v>0.5180443795489871</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N10">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q10">
-        <v>850.2763953730314</v>
+        <v>1037.354137234104</v>
       </c>
       <c r="R10">
-        <v>850.2763953730314</v>
+        <v>9336.187235106936</v>
       </c>
       <c r="S10">
-        <v>0.1461217910412394</v>
+        <v>0.1383456058530239</v>
       </c>
       <c r="T10">
-        <v>0.1461217910412394</v>
+        <v>0.1383456058530239</v>
       </c>
     </row>
   </sheetData>
